--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\OneDrive\Desktop\Backup\CarryForward\04\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{BEAC6C19-0AC6-4E65-8E1C-B8E3679005CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3254E1B7-7EC7-4634-A0F5-8E1B1487BEEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E1B4C-CC40-4F18-AAC0-6B6F90B50A8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="All_Scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All_Scenarios!$A$1:$Y$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All_Scenarios!$A$1:$Z$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">All_Scenarios!$A$1:$Y$124</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">All_Scenarios!$A$1:$V$175</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">All_Scenarios!$A$1:$V$124</definedName>
@@ -2452,8 +2452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21491,6 +21492,7 @@
       <c r="D248" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z1" xr:uid="{39FDE6E8-59A7-4523-B4E2-A17D1617CAEA}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D2:D248">
     <cfRule type="uniqueValues" dxfId="0" priority="4"/>

--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E1B4C-CC40-4F18-AAC0-6B6F90B50A8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16BCC26-DE24-496A-92A6-E7CF46F9B880}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="All_Scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All_Scenarios!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All_Scenarios!$A$1:$Z$247</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">All_Scenarios!$A$1:$Y$124</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">All_Scenarios!$A$1:$V$175</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">All_Scenarios!$A$1:$V$124</definedName>
@@ -2450,11 +2450,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84:C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2555,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>155</v>
@@ -2631,7 +2632,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>156</v>
@@ -2708,7 +2709,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>157</v>
@@ -2785,7 +2786,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>158</v>
@@ -2862,7 +2863,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>159</v>
@@ -2939,7 +2940,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>160</v>
@@ -3016,7 +3017,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>161</v>
@@ -3093,7 +3094,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>162</v>
@@ -3170,7 +3171,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>163</v>
@@ -3247,7 +3248,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>164</v>
@@ -3324,7 +3325,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>165</v>
@@ -3401,7 +3402,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>166</v>
@@ -3478,7 +3479,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>167</v>
@@ -3555,7 +3556,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>168</v>
@@ -3632,7 +3633,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>169</v>
@@ -3709,7 +3710,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>170</v>
@@ -3786,7 +3787,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>171</v>
@@ -3863,7 +3864,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>172</v>
@@ -3940,7 +3941,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>173</v>
@@ -4017,7 +4018,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>174</v>
@@ -4094,7 +4095,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>175</v>
@@ -4171,7 +4172,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>176</v>
@@ -4248,7 +4249,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>177</v>
@@ -4325,7 +4326,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>178</v>
@@ -4402,7 +4403,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>179</v>
@@ -4479,7 +4480,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>180</v>
@@ -4556,7 +4557,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>181</v>
@@ -4633,7 +4634,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>182</v>
@@ -4710,7 +4711,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>183</v>
@@ -4787,7 +4788,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>184</v>
@@ -4864,7 +4865,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>185</v>
@@ -4941,7 +4942,7 @@
         <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>186</v>
@@ -5018,7 +5019,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>187</v>
@@ -5095,7 +5096,7 @@
         <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>188</v>
@@ -5172,7 +5173,7 @@
         <v>62</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>189</v>
@@ -5249,7 +5250,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>190</v>
@@ -5326,7 +5327,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>191</v>
@@ -5403,7 +5404,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>192</v>
@@ -5480,7 +5481,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>193</v>
@@ -5557,7 +5558,7 @@
         <v>67</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>194</v>
@@ -5634,7 +5635,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>195</v>
@@ -5703,7 +5704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="132" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>24</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>196</v>
@@ -5780,7 +5781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="198" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>24</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>70</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>197</v>
@@ -5857,7 +5858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>24</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>71</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>198</v>
@@ -5934,7 +5935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>24</v>
       </c>
@@ -5942,7 +5943,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>199</v>
@@ -6011,7 +6012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
@@ -6019,7 +6020,7 @@
         <v>73</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>200</v>
@@ -6088,7 +6089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>24</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>74</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>201</v>
@@ -6165,7 +6166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>24</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>75</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>202</v>
@@ -6242,7 +6243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>24</v>
       </c>
@@ -6250,7 +6251,7 @@
         <v>76</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>203</v>
@@ -6319,7 +6320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>24</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>77</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>204</v>
@@ -6396,7 +6397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>24</v>
       </c>
@@ -6404,7 +6405,7 @@
         <v>78</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>205</v>
@@ -6473,7 +6474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>24</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>79</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>206</v>
@@ -6550,7 +6551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>24</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>80</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>207</v>
@@ -6627,7 +6628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>24</v>
       </c>
@@ -6635,7 +6636,7 @@
         <v>81</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>208</v>
@@ -6704,7 +6705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>24</v>
       </c>
@@ -6712,7 +6713,7 @@
         <v>82</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>209</v>
@@ -6781,7 +6782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>24</v>
       </c>
@@ -6789,7 +6790,7 @@
         <v>83</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>210</v>
@@ -6858,7 +6859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>24</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>84</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>211</v>
@@ -6935,7 +6936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>24</v>
       </c>
@@ -6943,7 +6944,7 @@
         <v>85</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>212</v>
@@ -7012,7 +7013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>24</v>
       </c>
@@ -7020,7 +7021,7 @@
         <v>86</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>213</v>
@@ -7089,7 +7090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>24</v>
       </c>
@@ -7097,7 +7098,7 @@
         <v>87</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>214</v>
@@ -7166,7 +7167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>24</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>88</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>215</v>
@@ -7243,7 +7244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>24</v>
       </c>
@@ -7251,7 +7252,7 @@
         <v>89</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>216</v>
@@ -7320,7 +7321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>24</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>90</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>217</v>
@@ -7397,7 +7398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>24</v>
       </c>
@@ -7405,7 +7406,7 @@
         <v>91</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>218</v>
@@ -7474,7 +7475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>24</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>92</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>219</v>
@@ -7551,7 +7552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>24</v>
       </c>
@@ -7559,7 +7560,7 @@
         <v>93</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>220</v>
@@ -7628,7 +7629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>24</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>94</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>221</v>
@@ -7705,7 +7706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>24</v>
       </c>
@@ -7713,7 +7714,7 @@
         <v>95</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>222</v>
@@ -7782,7 +7783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>24</v>
       </c>
@@ -7790,7 +7791,7 @@
         <v>96</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>223</v>
@@ -7859,7 +7860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>24</v>
       </c>
@@ -7867,7 +7868,7 @@
         <v>97</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>224</v>
@@ -7936,7 +7937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>24</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>98</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>225</v>
@@ -8013,7 +8014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>24</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>99</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>226</v>
@@ -8090,7 +8091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>24</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>100</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>227</v>
@@ -8167,7 +8168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>24</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>101</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>228</v>
@@ -8244,7 +8245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>24</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>102</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>229</v>
@@ -8321,7 +8322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>24</v>
       </c>
@@ -8329,7 +8330,7 @@
         <v>103</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>230</v>
@@ -8398,7 +8399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>24</v>
       </c>
@@ -8406,7 +8407,7 @@
         <v>104</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>231</v>
@@ -8475,7 +8476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>24</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>105</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>232</v>
@@ -8552,7 +8553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>24</v>
       </c>
@@ -8560,7 +8561,7 @@
         <v>106</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>233</v>
@@ -8629,7 +8630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>24</v>
       </c>
@@ -8637,7 +8638,7 @@
         <v>107</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>234</v>
@@ -8706,7 +8707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>24</v>
       </c>
@@ -8714,7 +8715,7 @@
         <v>108</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>235</v>
@@ -8783,7 +8784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>24</v>
       </c>
@@ -8791,7 +8792,7 @@
         <v>109</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>236</v>
@@ -15174,7 +15175,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="132" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>24</v>
       </c>
@@ -15182,7 +15183,7 @@
         <v>69</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>319</v>
@@ -15251,7 +15252,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="198" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" ht="198" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>24</v>
       </c>
@@ -15259,7 +15260,7 @@
         <v>70</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>320</v>
@@ -15328,7 +15329,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>24</v>
       </c>
@@ -15336,7 +15337,7 @@
         <v>71</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>321</v>
@@ -15405,7 +15406,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:25" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>24</v>
       </c>
@@ -15413,7 +15414,7 @@
         <v>72</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>322</v>
@@ -15482,7 +15483,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>24</v>
       </c>
@@ -15490,7 +15491,7 @@
         <v>73</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>323</v>
@@ -15559,7 +15560,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>24</v>
       </c>
@@ -15567,7 +15568,7 @@
         <v>74</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>324</v>
@@ -15636,7 +15637,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25" ht="184.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>24</v>
       </c>
@@ -15644,7 +15645,7 @@
         <v>75</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>325</v>
@@ -15713,7 +15714,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>24</v>
       </c>
@@ -15721,7 +15722,7 @@
         <v>76</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>326</v>
@@ -15790,7 +15791,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="174" spans="1:25" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>24</v>
       </c>
@@ -15798,7 +15799,7 @@
         <v>77</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>327</v>
@@ -15867,7 +15868,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25" ht="171.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>24</v>
       </c>
@@ -15875,7 +15876,7 @@
         <v>78</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>328</v>
@@ -15944,7 +15945,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25" ht="158.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>24</v>
       </c>
@@ -15952,7 +15953,7 @@
         <v>79</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>329</v>
@@ -16021,7 +16022,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>24</v>
       </c>
@@ -16029,7 +16030,7 @@
         <v>80</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>330</v>
@@ -16098,7 +16099,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>24</v>
       </c>
@@ -16106,7 +16107,7 @@
         <v>81</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>331</v>
@@ -16175,7 +16176,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>24</v>
       </c>
@@ -16183,7 +16184,7 @@
         <v>82</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>332</v>
@@ -16252,7 +16253,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>24</v>
       </c>
@@ -16260,7 +16261,7 @@
         <v>83</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>333</v>
@@ -16329,7 +16330,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>24</v>
       </c>
@@ -16337,7 +16338,7 @@
         <v>84</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>334</v>
@@ -16406,7 +16407,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>24</v>
       </c>
@@ -16414,7 +16415,7 @@
         <v>85</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>335</v>
@@ -16483,7 +16484,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>24</v>
       </c>
@@ -16491,7 +16492,7 @@
         <v>86</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>336</v>
@@ -16560,7 +16561,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>24</v>
       </c>
@@ -16568,7 +16569,7 @@
         <v>87</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>337</v>
@@ -16637,7 +16638,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>24</v>
       </c>
@@ -16645,7 +16646,7 @@
         <v>88</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>338</v>
@@ -16714,7 +16715,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>24</v>
       </c>
@@ -16722,7 +16723,7 @@
         <v>89</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>339</v>
@@ -16791,7 +16792,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>24</v>
       </c>
@@ -16799,7 +16800,7 @@
         <v>90</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>340</v>
@@ -16868,7 +16869,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>24</v>
       </c>
@@ -16876,7 +16877,7 @@
         <v>91</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>341</v>
@@ -16945,7 +16946,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>24</v>
       </c>
@@ -16953,7 +16954,7 @@
         <v>92</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>342</v>
@@ -17022,7 +17023,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>24</v>
       </c>
@@ -17030,7 +17031,7 @@
         <v>93</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>343</v>
@@ -17099,7 +17100,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>24</v>
       </c>
@@ -17107,7 +17108,7 @@
         <v>94</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>344</v>
@@ -17176,7 +17177,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25" ht="250.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>24</v>
       </c>
@@ -17184,7 +17185,7 @@
         <v>95</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>345</v>
@@ -17253,7 +17254,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>24</v>
       </c>
@@ -17261,7 +17262,7 @@
         <v>96</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>346</v>
@@ -17330,7 +17331,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>24</v>
       </c>
@@ -17338,7 +17339,7 @@
         <v>97</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>347</v>
@@ -17407,7 +17408,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>24</v>
       </c>
@@ -17415,7 +17416,7 @@
         <v>98</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>348</v>
@@ -17484,7 +17485,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>24</v>
       </c>
@@ -17492,7 +17493,7 @@
         <v>99</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>349</v>
@@ -17561,7 +17562,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>24</v>
       </c>
@@ -17569,7 +17570,7 @@
         <v>100</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>350</v>
@@ -17638,7 +17639,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>24</v>
       </c>
@@ -17646,7 +17647,7 @@
         <v>101</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>351</v>
@@ -17715,7 +17716,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>24</v>
       </c>
@@ -17723,7 +17724,7 @@
         <v>102</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>352</v>
@@ -17792,7 +17793,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>24</v>
       </c>
@@ -17800,7 +17801,7 @@
         <v>103</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>353</v>
@@ -17869,7 +17870,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="201" spans="1:25" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>24</v>
       </c>
@@ -17877,7 +17878,7 @@
         <v>104</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>354</v>
@@ -17946,7 +17947,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="202" spans="1:25" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="237.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>24</v>
       </c>
@@ -17954,7 +17955,7 @@
         <v>105</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>355</v>
@@ -18023,7 +18024,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>24</v>
       </c>
@@ -18031,7 +18032,7 @@
         <v>106</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>356</v>
@@ -18100,7 +18101,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>24</v>
       </c>
@@ -18108,7 +18109,7 @@
         <v>107</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>357</v>
@@ -18177,7 +18178,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="224.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>24</v>
       </c>
@@ -18185,7 +18186,7 @@
         <v>108</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>358</v>
@@ -18254,7 +18255,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="211.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>24</v>
       </c>
@@ -18262,7 +18263,7 @@
         <v>109</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>359</v>
@@ -21492,7 +21493,13 @@
       <c r="D248" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1" xr:uid="{39FDE6E8-59A7-4523-B4E2-A17D1617CAEA}"/>
+  <autoFilter ref="A1:Z247" xr:uid="{39FDE6E8-59A7-4523-B4E2-A17D1617CAEA}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D2:D248">
     <cfRule type="uniqueValues" dxfId="0" priority="4"/>

--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16BCC26-DE24-496A-92A6-E7CF46F9B880}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A45FCF2-FD83-43BE-ADA8-DBE5D2194C07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2453,9 +2453,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84:C247"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8869,7 +8869,7 @@
         <v>110</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>237</v>
@@ -8946,7 +8946,7 @@
         <v>111</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>238</v>
@@ -9023,7 +9023,7 @@
         <v>112</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>239</v>
@@ -9100,7 +9100,7 @@
         <v>113</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>240</v>
@@ -9177,7 +9177,7 @@
         <v>114</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>241</v>
@@ -9254,7 +9254,7 @@
         <v>115</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>242</v>
@@ -9331,7 +9331,7 @@
         <v>116</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>243</v>
@@ -9408,7 +9408,7 @@
         <v>117</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>244</v>
@@ -9485,7 +9485,7 @@
         <v>118</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>245</v>
@@ -9562,7 +9562,7 @@
         <v>119</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>246</v>
@@ -9639,7 +9639,7 @@
         <v>120</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>247</v>
@@ -9716,7 +9716,7 @@
         <v>121</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>248</v>
@@ -9793,7 +9793,7 @@
         <v>122</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>249</v>
@@ -9870,7 +9870,7 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>250</v>
@@ -9947,7 +9947,7 @@
         <v>124</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>251</v>
@@ -10024,7 +10024,7 @@
         <v>125</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>252</v>
@@ -10101,7 +10101,7 @@
         <v>126</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>253</v>
@@ -10178,7 +10178,7 @@
         <v>127</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>254</v>
@@ -10255,7 +10255,7 @@
         <v>128</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>255</v>
@@ -10332,7 +10332,7 @@
         <v>129</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>256</v>
@@ -10409,7 +10409,7 @@
         <v>130</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>257</v>
@@ -10486,7 +10486,7 @@
         <v>131</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>258</v>
@@ -10563,7 +10563,7 @@
         <v>132</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>259</v>
@@ -10640,7 +10640,7 @@
         <v>133</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>260</v>
@@ -10717,7 +10717,7 @@
         <v>134</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>261</v>
@@ -10794,7 +10794,7 @@
         <v>135</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>262</v>
@@ -12026,7 +12026,7 @@
         <v>25</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>278</v>
@@ -12103,7 +12103,7 @@
         <v>29</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>279</v>
@@ -12180,7 +12180,7 @@
         <v>30</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>280</v>
@@ -12257,7 +12257,7 @@
         <v>31</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>281</v>
@@ -12334,7 +12334,7 @@
         <v>32</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>282</v>
@@ -12411,7 +12411,7 @@
         <v>33</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>283</v>
@@ -12488,7 +12488,7 @@
         <v>34</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>284</v>
@@ -12565,7 +12565,7 @@
         <v>35</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>285</v>
@@ -12642,7 +12642,7 @@
         <v>36</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>286</v>
@@ -12719,7 +12719,7 @@
         <v>37</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>287</v>
@@ -12796,7 +12796,7 @@
         <v>38</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>288</v>
@@ -12873,7 +12873,7 @@
         <v>39</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>289</v>
@@ -12950,7 +12950,7 @@
         <v>40</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>290</v>
@@ -13027,7 +13027,7 @@
         <v>41</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>291</v>
@@ -13104,7 +13104,7 @@
         <v>42</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>292</v>
@@ -13181,7 +13181,7 @@
         <v>43</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>293</v>
@@ -13258,7 +13258,7 @@
         <v>44</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>294</v>
@@ -13335,7 +13335,7 @@
         <v>45</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>295</v>
@@ -13412,7 +13412,7 @@
         <v>46</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>296</v>
@@ -13489,7 +13489,7 @@
         <v>47</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>297</v>
@@ -13566,7 +13566,7 @@
         <v>48</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>298</v>
@@ -13643,7 +13643,7 @@
         <v>49</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>299</v>
@@ -13720,7 +13720,7 @@
         <v>50</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>300</v>
@@ -13797,7 +13797,7 @@
         <v>51</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>301</v>
@@ -13874,7 +13874,7 @@
         <v>52</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>302</v>
@@ -13951,7 +13951,7 @@
         <v>53</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>303</v>
@@ -14028,7 +14028,7 @@
         <v>54</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>304</v>
@@ -14105,7 +14105,7 @@
         <v>55</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>305</v>
@@ -14182,7 +14182,7 @@
         <v>56</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>306</v>
@@ -14259,7 +14259,7 @@
         <v>57</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>307</v>
@@ -14336,7 +14336,7 @@
         <v>58</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>308</v>
@@ -14413,7 +14413,7 @@
         <v>59</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>309</v>
@@ -14490,7 +14490,7 @@
         <v>60</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>310</v>
@@ -14567,7 +14567,7 @@
         <v>61</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>311</v>
@@ -14644,7 +14644,7 @@
         <v>62</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>312</v>
@@ -14721,7 +14721,7 @@
         <v>63</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>313</v>
@@ -14798,7 +14798,7 @@
         <v>64</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>314</v>
@@ -14875,7 +14875,7 @@
         <v>65</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>315</v>
@@ -14952,7 +14952,7 @@
         <v>66</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>316</v>
@@ -15029,7 +15029,7 @@
         <v>67</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>317</v>
@@ -15106,7 +15106,7 @@
         <v>68</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>318</v>
@@ -18340,7 +18340,7 @@
         <v>110</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>360</v>
@@ -18417,7 +18417,7 @@
         <v>111</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>361</v>
@@ -18494,7 +18494,7 @@
         <v>112</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>362</v>
@@ -18571,7 +18571,7 @@
         <v>113</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>363</v>
@@ -18648,7 +18648,7 @@
         <v>114</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>364</v>
@@ -18725,7 +18725,7 @@
         <v>115</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>365</v>
@@ -18802,7 +18802,7 @@
         <v>116</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>366</v>
@@ -18879,7 +18879,7 @@
         <v>117</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>367</v>
@@ -18956,7 +18956,7 @@
         <v>118</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>368</v>
@@ -19033,7 +19033,7 @@
         <v>119</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>369</v>
@@ -19110,7 +19110,7 @@
         <v>120</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>370</v>
@@ -19187,7 +19187,7 @@
         <v>121</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>371</v>
@@ -19264,7 +19264,7 @@
         <v>122</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>372</v>
@@ -19341,7 +19341,7 @@
         <v>123</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>373</v>
@@ -19418,7 +19418,7 @@
         <v>124</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>374</v>
@@ -19495,7 +19495,7 @@
         <v>125</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>375</v>
@@ -19572,7 +19572,7 @@
         <v>126</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>376</v>
@@ -19649,7 +19649,7 @@
         <v>127</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>377</v>
@@ -19726,7 +19726,7 @@
         <v>128</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>378</v>
@@ -19803,7 +19803,7 @@
         <v>129</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>379</v>
@@ -19880,7 +19880,7 @@
         <v>130</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>380</v>
@@ -19957,7 +19957,7 @@
         <v>131</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>381</v>
@@ -20034,7 +20034,7 @@
         <v>132</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>382</v>
@@ -20111,7 +20111,7 @@
         <v>133</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>383</v>
@@ -20188,7 +20188,7 @@
         <v>134</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>384</v>
@@ -20265,7 +20265,7 @@
         <v>135</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>385</v>

--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A45FCF2-FD83-43BE-ADA8-DBE5D2194C07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EBA277-9DF8-4A92-8902-96B44BC21F71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="405">
   <si>
     <t>Test Case</t>
   </si>
@@ -2055,6 +2055,9 @@
   </si>
   <si>
     <t>March</t>
+  </si>
+  <si>
+    <t>october</t>
   </si>
 </sst>
 </file>
@@ -2454,8 +2457,8 @@
   <dimension ref="A1:Z248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2555,7 +2558,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>155</v>
@@ -2567,7 +2570,7 @@
         <v>402</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>27</v>
@@ -2632,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>156</v>
@@ -2644,7 +2647,7 @@
         <v>402</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>27</v>
@@ -2709,7 +2712,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>157</v>
@@ -2721,7 +2724,7 @@
         <v>402</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>27</v>
@@ -2786,7 +2789,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>158</v>
@@ -2798,7 +2801,7 @@
         <v>402</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>27</v>
@@ -2863,7 +2866,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>159</v>
@@ -2875,7 +2878,7 @@
         <v>402</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>27</v>
@@ -2940,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>160</v>
@@ -2952,7 +2955,7 @@
         <v>402</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>27</v>
@@ -3017,7 +3020,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>161</v>
@@ -3029,7 +3032,7 @@
         <v>402</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>27</v>
@@ -3094,7 +3097,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>162</v>
@@ -3106,7 +3109,7 @@
         <v>402</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>27</v>
@@ -3171,7 +3174,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>163</v>
@@ -3183,7 +3186,7 @@
         <v>402</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>27</v>
@@ -3248,7 +3251,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>164</v>
@@ -3260,7 +3263,7 @@
         <v>402</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>27</v>
@@ -3325,7 +3328,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>165</v>
@@ -3337,7 +3340,7 @@
         <v>402</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>27</v>
@@ -3402,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>166</v>
@@ -3414,7 +3417,7 @@
         <v>402</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>27</v>
@@ -3479,7 +3482,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>167</v>
@@ -3491,7 +3494,7 @@
         <v>402</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>27</v>
@@ -3556,7 +3559,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>168</v>
@@ -3568,7 +3571,7 @@
         <v>402</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>27</v>
@@ -3633,7 +3636,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>169</v>
@@ -3645,7 +3648,7 @@
         <v>402</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>27</v>
@@ -3710,7 +3713,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>170</v>
@@ -3722,7 +3725,7 @@
         <v>402</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>27</v>
@@ -3787,7 +3790,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>171</v>
@@ -3799,7 +3802,7 @@
         <v>402</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>27</v>
@@ -3864,7 +3867,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>172</v>
@@ -3876,7 +3879,7 @@
         <v>402</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>27</v>
@@ -3941,7 +3944,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>173</v>
@@ -3953,7 +3956,7 @@
         <v>402</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>27</v>
@@ -4018,7 +4021,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>174</v>
@@ -4030,7 +4033,7 @@
         <v>402</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>27</v>
@@ -4095,7 +4098,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>175</v>
@@ -4107,7 +4110,7 @@
         <v>402</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>27</v>
@@ -4172,7 +4175,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>176</v>
@@ -4184,7 +4187,7 @@
         <v>402</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>27</v>
@@ -4249,7 +4252,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>177</v>
@@ -4261,7 +4264,7 @@
         <v>402</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>27</v>
@@ -4326,7 +4329,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>178</v>
@@ -4338,7 +4341,7 @@
         <v>402</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>27</v>
@@ -4403,7 +4406,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>179</v>
@@ -4415,7 +4418,7 @@
         <v>402</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>27</v>
@@ -4480,7 +4483,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>180</v>
@@ -4492,7 +4495,7 @@
         <v>402</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>27</v>
@@ -4557,7 +4560,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>181</v>
@@ -4569,7 +4572,7 @@
         <v>402</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>27</v>
@@ -4634,7 +4637,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>182</v>
@@ -4646,7 +4649,7 @@
         <v>402</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>27</v>
@@ -4711,7 +4714,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>183</v>
@@ -4723,7 +4726,7 @@
         <v>402</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>27</v>
@@ -4788,7 +4791,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>184</v>
@@ -4800,7 +4803,7 @@
         <v>402</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>27</v>
@@ -4865,7 +4868,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>185</v>
@@ -4877,7 +4880,7 @@
         <v>402</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>27</v>
@@ -4942,7 +4945,7 @@
         <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>186</v>
@@ -4954,7 +4957,7 @@
         <v>402</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>27</v>
@@ -5019,7 +5022,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>187</v>
@@ -5031,7 +5034,7 @@
         <v>402</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>27</v>
@@ -5096,7 +5099,7 @@
         <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>188</v>
@@ -5108,7 +5111,7 @@
         <v>402</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>27</v>
@@ -5173,7 +5176,7 @@
         <v>62</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>189</v>
@@ -5185,7 +5188,7 @@
         <v>402</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>27</v>
@@ -5250,7 +5253,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>190</v>
@@ -5262,7 +5265,7 @@
         <v>402</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>27</v>
@@ -5327,7 +5330,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>191</v>
@@ -5339,7 +5342,7 @@
         <v>402</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>27</v>
@@ -5404,7 +5407,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>192</v>
@@ -5416,7 +5419,7 @@
         <v>402</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>27</v>
@@ -5481,7 +5484,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>193</v>
@@ -5493,7 +5496,7 @@
         <v>402</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>27</v>
@@ -5558,7 +5561,7 @@
         <v>67</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>194</v>
@@ -5570,7 +5573,7 @@
         <v>402</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>27</v>
@@ -5635,7 +5638,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>195</v>
@@ -5647,7 +5650,7 @@
         <v>402</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>27</v>
@@ -8869,7 +8872,7 @@
         <v>110</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>237</v>
@@ -8881,7 +8884,7 @@
         <v>402</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>27</v>
@@ -8946,7 +8949,7 @@
         <v>111</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>238</v>
@@ -8958,7 +8961,7 @@
         <v>402</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>27</v>
@@ -9023,7 +9026,7 @@
         <v>112</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>239</v>
@@ -9035,7 +9038,7 @@
         <v>402</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>27</v>
@@ -9100,7 +9103,7 @@
         <v>113</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>240</v>
@@ -9112,7 +9115,7 @@
         <v>402</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>27</v>
@@ -9177,7 +9180,7 @@
         <v>114</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>241</v>
@@ -9189,7 +9192,7 @@
         <v>402</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>27</v>
@@ -9254,7 +9257,7 @@
         <v>115</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>242</v>
@@ -9266,7 +9269,7 @@
         <v>402</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>27</v>
@@ -9331,7 +9334,7 @@
         <v>116</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>243</v>
@@ -9343,7 +9346,7 @@
         <v>402</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>27</v>
@@ -9408,7 +9411,7 @@
         <v>117</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>244</v>
@@ -9420,7 +9423,7 @@
         <v>402</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>27</v>
@@ -9485,7 +9488,7 @@
         <v>118</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>245</v>
@@ -9497,7 +9500,7 @@
         <v>402</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>27</v>
@@ -9562,7 +9565,7 @@
         <v>119</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>246</v>
@@ -9574,7 +9577,7 @@
         <v>402</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>27</v>
@@ -9639,7 +9642,7 @@
         <v>120</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>247</v>
@@ -9651,7 +9654,7 @@
         <v>402</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>27</v>
@@ -9716,7 +9719,7 @@
         <v>121</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>248</v>
@@ -9728,7 +9731,7 @@
         <v>402</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>27</v>
@@ -9793,7 +9796,7 @@
         <v>122</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>249</v>
@@ -9805,7 +9808,7 @@
         <v>402</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>27</v>
@@ -9870,7 +9873,7 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>250</v>
@@ -9882,7 +9885,7 @@
         <v>402</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>27</v>
@@ -9947,7 +9950,7 @@
         <v>124</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>251</v>
@@ -9959,7 +9962,7 @@
         <v>402</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>27</v>
@@ -10024,7 +10027,7 @@
         <v>125</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>252</v>
@@ -10036,7 +10039,7 @@
         <v>402</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>27</v>
@@ -10101,7 +10104,7 @@
         <v>126</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>253</v>
@@ -10113,7 +10116,7 @@
         <v>402</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>27</v>
@@ -10178,7 +10181,7 @@
         <v>127</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>254</v>
@@ -10190,7 +10193,7 @@
         <v>402</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>27</v>
@@ -10255,7 +10258,7 @@
         <v>128</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>255</v>
@@ -10267,7 +10270,7 @@
         <v>402</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>27</v>
@@ -10332,7 +10335,7 @@
         <v>129</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>256</v>
@@ -10344,7 +10347,7 @@
         <v>402</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>27</v>
@@ -10409,7 +10412,7 @@
         <v>130</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>257</v>
@@ -10421,7 +10424,7 @@
         <v>402</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>27</v>
@@ -10486,7 +10489,7 @@
         <v>131</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>258</v>
@@ -10498,7 +10501,7 @@
         <v>402</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>27</v>
@@ -10563,7 +10566,7 @@
         <v>132</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>259</v>
@@ -10575,7 +10578,7 @@
         <v>402</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>27</v>
@@ -10640,7 +10643,7 @@
         <v>133</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>260</v>
@@ -10652,7 +10655,7 @@
         <v>402</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>27</v>
@@ -10717,7 +10720,7 @@
         <v>134</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>261</v>
@@ -10729,7 +10732,7 @@
         <v>402</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>27</v>
@@ -10794,7 +10797,7 @@
         <v>135</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>262</v>
@@ -10806,7 +10809,7 @@
         <v>402</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>27</v>
@@ -10883,7 +10886,7 @@
         <v>402</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>27</v>
@@ -10960,7 +10963,7 @@
         <v>402</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>27</v>
@@ -11037,7 +11040,7 @@
         <v>402</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>27</v>
@@ -11114,7 +11117,7 @@
         <v>402</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>27</v>
@@ -11191,7 +11194,7 @@
         <v>402</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>27</v>
@@ -11268,7 +11271,7 @@
         <v>402</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>27</v>
@@ -11345,7 +11348,7 @@
         <v>402</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>27</v>
@@ -11422,7 +11425,7 @@
         <v>402</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>27</v>
@@ -11499,7 +11502,7 @@
         <v>402</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>27</v>
@@ -11576,7 +11579,7 @@
         <v>402</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>27</v>
@@ -11653,7 +11656,7 @@
         <v>402</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>27</v>
@@ -11730,7 +11733,7 @@
         <v>402</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>27</v>
@@ -11807,7 +11810,7 @@
         <v>402</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>27</v>
@@ -11884,7 +11887,7 @@
         <v>402</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>27</v>
@@ -11961,7 +11964,7 @@
         <v>402</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>27</v>
@@ -12026,7 +12029,7 @@
         <v>25</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>278</v>
@@ -12038,7 +12041,7 @@
         <v>402</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>27</v>
@@ -12103,7 +12106,7 @@
         <v>29</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>279</v>
@@ -12115,7 +12118,7 @@
         <v>402</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>27</v>
@@ -12180,7 +12183,7 @@
         <v>30</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>280</v>
@@ -12192,7 +12195,7 @@
         <v>402</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>27</v>
@@ -12257,7 +12260,7 @@
         <v>31</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>281</v>
@@ -12269,7 +12272,7 @@
         <v>402</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>27</v>
@@ -12334,7 +12337,7 @@
         <v>32</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>282</v>
@@ -12346,7 +12349,7 @@
         <v>402</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>27</v>
@@ -12411,7 +12414,7 @@
         <v>33</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>283</v>
@@ -12423,7 +12426,7 @@
         <v>402</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>27</v>
@@ -12488,7 +12491,7 @@
         <v>34</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>284</v>
@@ -12500,7 +12503,7 @@
         <v>402</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>27</v>
@@ -12565,7 +12568,7 @@
         <v>35</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>285</v>
@@ -12577,7 +12580,7 @@
         <v>402</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>27</v>
@@ -12642,7 +12645,7 @@
         <v>36</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>286</v>
@@ -12654,7 +12657,7 @@
         <v>402</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>27</v>
@@ -12719,7 +12722,7 @@
         <v>37</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>287</v>
@@ -12731,7 +12734,7 @@
         <v>402</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>27</v>
@@ -12796,7 +12799,7 @@
         <v>38</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>288</v>
@@ -12808,7 +12811,7 @@
         <v>402</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>27</v>
@@ -12873,7 +12876,7 @@
         <v>39</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>289</v>
@@ -12885,7 +12888,7 @@
         <v>402</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>27</v>
@@ -12950,7 +12953,7 @@
         <v>40</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>290</v>
@@ -12962,7 +12965,7 @@
         <v>402</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>27</v>
@@ -13027,7 +13030,7 @@
         <v>41</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>291</v>
@@ -13039,7 +13042,7 @@
         <v>402</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>27</v>
@@ -13104,7 +13107,7 @@
         <v>42</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>292</v>
@@ -13116,7 +13119,7 @@
         <v>402</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>27</v>
@@ -13181,7 +13184,7 @@
         <v>43</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>293</v>
@@ -13193,7 +13196,7 @@
         <v>402</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>27</v>
@@ -13258,7 +13261,7 @@
         <v>44</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>294</v>
@@ -13270,7 +13273,7 @@
         <v>402</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>27</v>
@@ -13335,7 +13338,7 @@
         <v>45</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>295</v>
@@ -13347,7 +13350,7 @@
         <v>402</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>27</v>
@@ -13412,7 +13415,7 @@
         <v>46</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>296</v>
@@ -13424,7 +13427,7 @@
         <v>402</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>27</v>
@@ -13489,7 +13492,7 @@
         <v>47</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>297</v>
@@ -13501,7 +13504,7 @@
         <v>402</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>27</v>
@@ -13566,7 +13569,7 @@
         <v>48</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>298</v>
@@ -13578,7 +13581,7 @@
         <v>402</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>27</v>
@@ -13643,7 +13646,7 @@
         <v>49</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>299</v>
@@ -13655,7 +13658,7 @@
         <v>402</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>27</v>
@@ -13720,7 +13723,7 @@
         <v>50</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>300</v>
@@ -13732,7 +13735,7 @@
         <v>402</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>27</v>
@@ -13797,7 +13800,7 @@
         <v>51</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>301</v>
@@ -13809,7 +13812,7 @@
         <v>402</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>27</v>
@@ -13874,7 +13877,7 @@
         <v>52</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>302</v>
@@ -13886,7 +13889,7 @@
         <v>402</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>27</v>
@@ -13951,7 +13954,7 @@
         <v>53</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>303</v>
@@ -13963,7 +13966,7 @@
         <v>402</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>27</v>
@@ -14028,7 +14031,7 @@
         <v>54</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>304</v>
@@ -14040,7 +14043,7 @@
         <v>402</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>27</v>
@@ -14105,7 +14108,7 @@
         <v>55</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>305</v>
@@ -14117,7 +14120,7 @@
         <v>402</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>27</v>
@@ -14182,7 +14185,7 @@
         <v>56</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>306</v>
@@ -14194,7 +14197,7 @@
         <v>402</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>27</v>
@@ -14259,7 +14262,7 @@
         <v>57</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>307</v>
@@ -14271,7 +14274,7 @@
         <v>402</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>27</v>
@@ -14336,7 +14339,7 @@
         <v>58</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>308</v>
@@ -14348,7 +14351,7 @@
         <v>402</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>27</v>
@@ -14413,7 +14416,7 @@
         <v>59</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>309</v>
@@ -14425,7 +14428,7 @@
         <v>402</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>27</v>
@@ -14490,7 +14493,7 @@
         <v>60</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>310</v>
@@ -14502,7 +14505,7 @@
         <v>402</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>27</v>
@@ -14567,7 +14570,7 @@
         <v>61</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>311</v>
@@ -14579,7 +14582,7 @@
         <v>402</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>27</v>
@@ -14644,7 +14647,7 @@
         <v>62</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>312</v>
@@ -14656,7 +14659,7 @@
         <v>402</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>27</v>
@@ -14721,7 +14724,7 @@
         <v>63</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>313</v>
@@ -14733,7 +14736,7 @@
         <v>402</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>27</v>
@@ -14798,7 +14801,7 @@
         <v>64</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>314</v>
@@ -14810,7 +14813,7 @@
         <v>402</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>27</v>
@@ -14875,7 +14878,7 @@
         <v>65</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>315</v>
@@ -14887,7 +14890,7 @@
         <v>402</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>27</v>
@@ -14952,7 +14955,7 @@
         <v>66</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>316</v>
@@ -14964,7 +14967,7 @@
         <v>402</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>27</v>
@@ -15029,7 +15032,7 @@
         <v>67</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>317</v>
@@ -15041,7 +15044,7 @@
         <v>402</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>27</v>
@@ -15106,7 +15109,7 @@
         <v>68</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>318</v>
@@ -15118,7 +15121,7 @@
         <v>402</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>27</v>
@@ -18340,7 +18343,7 @@
         <v>110</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>360</v>
@@ -18352,7 +18355,7 @@
         <v>402</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H207" s="4" t="s">
         <v>27</v>
@@ -18417,7 +18420,7 @@
         <v>111</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>361</v>
@@ -18429,7 +18432,7 @@
         <v>402</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>27</v>
@@ -18494,7 +18497,7 @@
         <v>112</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>362</v>
@@ -18506,7 +18509,7 @@
         <v>402</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H209" s="4" t="s">
         <v>27</v>
@@ -18571,7 +18574,7 @@
         <v>113</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>363</v>
@@ -18583,7 +18586,7 @@
         <v>402</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H210" s="4" t="s">
         <v>27</v>
@@ -18648,7 +18651,7 @@
         <v>114</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>364</v>
@@ -18660,7 +18663,7 @@
         <v>402</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>27</v>
@@ -18725,7 +18728,7 @@
         <v>115</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>365</v>
@@ -18737,7 +18740,7 @@
         <v>402</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H212" s="4" t="s">
         <v>27</v>
@@ -18802,7 +18805,7 @@
         <v>116</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>366</v>
@@ -18814,7 +18817,7 @@
         <v>402</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H213" s="4" t="s">
         <v>27</v>
@@ -18879,7 +18882,7 @@
         <v>117</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>367</v>
@@ -18891,7 +18894,7 @@
         <v>402</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>27</v>
@@ -18956,7 +18959,7 @@
         <v>118</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>368</v>
@@ -18968,7 +18971,7 @@
         <v>402</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H215" s="4" t="s">
         <v>27</v>
@@ -19033,7 +19036,7 @@
         <v>119</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>369</v>
@@ -19045,7 +19048,7 @@
         <v>402</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>27</v>
@@ -19110,7 +19113,7 @@
         <v>120</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>370</v>
@@ -19122,7 +19125,7 @@
         <v>402</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H217" s="4" t="s">
         <v>27</v>
@@ -19187,7 +19190,7 @@
         <v>121</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>371</v>
@@ -19199,7 +19202,7 @@
         <v>402</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H218" s="4" t="s">
         <v>27</v>
@@ -19264,7 +19267,7 @@
         <v>122</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>372</v>
@@ -19276,7 +19279,7 @@
         <v>402</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H219" s="4" t="s">
         <v>27</v>
@@ -19341,7 +19344,7 @@
         <v>123</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>373</v>
@@ -19353,7 +19356,7 @@
         <v>402</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H220" s="4" t="s">
         <v>27</v>
@@ -19418,7 +19421,7 @@
         <v>124</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>374</v>
@@ -19430,7 +19433,7 @@
         <v>402</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H221" s="4" t="s">
         <v>27</v>
@@ -19495,7 +19498,7 @@
         <v>125</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>375</v>
@@ -19507,7 +19510,7 @@
         <v>402</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H222" s="4" t="s">
         <v>27</v>
@@ -19572,7 +19575,7 @@
         <v>126</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>376</v>
@@ -19584,7 +19587,7 @@
         <v>402</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H223" s="4" t="s">
         <v>27</v>
@@ -19649,7 +19652,7 @@
         <v>127</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>377</v>
@@ -19661,7 +19664,7 @@
         <v>402</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H224" s="4" t="s">
         <v>27</v>
@@ -19726,7 +19729,7 @@
         <v>128</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>378</v>
@@ -19738,7 +19741,7 @@
         <v>402</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H225" s="4" t="s">
         <v>27</v>
@@ -19803,7 +19806,7 @@
         <v>129</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>379</v>
@@ -19815,7 +19818,7 @@
         <v>402</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H226" s="4" t="s">
         <v>27</v>
@@ -19880,7 +19883,7 @@
         <v>130</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>380</v>
@@ -19892,7 +19895,7 @@
         <v>402</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H227" s="4" t="s">
         <v>27</v>
@@ -19957,7 +19960,7 @@
         <v>131</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>381</v>
@@ -19969,7 +19972,7 @@
         <v>402</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H228" s="4" t="s">
         <v>27</v>
@@ -20034,7 +20037,7 @@
         <v>132</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>382</v>
@@ -20046,7 +20049,7 @@
         <v>402</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H229" s="4" t="s">
         <v>27</v>
@@ -20111,7 +20114,7 @@
         <v>133</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>383</v>
@@ -20123,7 +20126,7 @@
         <v>402</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H230" s="4" t="s">
         <v>27</v>
@@ -20188,7 +20191,7 @@
         <v>134</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>384</v>
@@ -20200,7 +20203,7 @@
         <v>402</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H231" s="4" t="s">
         <v>27</v>
@@ -20265,7 +20268,7 @@
         <v>135</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>385</v>
@@ -20277,7 +20280,7 @@
         <v>402</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H232" s="4" t="s">
         <v>27</v>
@@ -20354,7 +20357,7 @@
         <v>402</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>27</v>
@@ -20431,7 +20434,7 @@
         <v>402</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H234" s="4" t="s">
         <v>27</v>
@@ -20508,7 +20511,7 @@
         <v>402</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>27</v>
@@ -20585,7 +20588,7 @@
         <v>402</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H236" s="4" t="s">
         <v>27</v>
@@ -20662,7 +20665,7 @@
         <v>402</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H237" s="4" t="s">
         <v>27</v>
@@ -20739,7 +20742,7 @@
         <v>402</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H238" s="4" t="s">
         <v>27</v>
@@ -20816,7 +20819,7 @@
         <v>402</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>27</v>
@@ -20893,7 +20896,7 @@
         <v>402</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H240" s="4" t="s">
         <v>27</v>
@@ -20970,7 +20973,7 @@
         <v>402</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>27</v>
@@ -21047,7 +21050,7 @@
         <v>402</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H242" s="4" t="s">
         <v>27</v>
@@ -21124,7 +21127,7 @@
         <v>402</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H243" s="4" t="s">
         <v>27</v>
@@ -21201,7 +21204,7 @@
         <v>402</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H244" s="4" t="s">
         <v>27</v>
@@ -21278,7 +21281,7 @@
         <v>402</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H245" s="4" t="s">
         <v>27</v>
@@ -21355,7 +21358,7 @@
         <v>402</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H246" s="4" t="s">
         <v>27</v>
@@ -21432,7 +21435,7 @@
         <v>402</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H247" s="4" t="s">
         <v>27</v>

--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EBA277-9DF8-4A92-8902-96B44BC21F71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0AB57F-BFE3-4BC4-956B-2D0A798E3562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2057,7 +2057,7 @@
     <t>March</t>
   </si>
   <si>
-    <t>october</t>
+    <t>May</t>
   </si>
 </sst>
 </file>

--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\CarryfForawardBalanceRun\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0AB57F-BFE3-4BC4-956B-2D0A798E3562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3AE939-FDE8-43B4-B5B6-AEE9A0D456CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2456,9 +2456,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G247"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2558,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>155</v>

--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0AB57F-BFE3-4BC4-956B-2D0A798E3562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9448AC73-E9B7-433B-89C0-EE588CE4C0F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5436" uniqueCount="405">
   <si>
     <t>Test Case</t>
   </si>
@@ -2457,8 +2457,8 @@
   <dimension ref="A1:Z248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G247"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2558,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>155</v>
@@ -2635,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>156</v>
@@ -2688,8 +2688,8 @@
       <c r="T3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="4" t="s">
-        <v>26</v>
+      <c r="U3" s="4">
+        <v>987654321</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>26</v>
@@ -2712,7 +2712,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>157</v>
@@ -2789,7 +2789,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>158</v>
@@ -2866,7 +2866,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>159</v>
@@ -2943,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>160</v>
@@ -3020,7 +3020,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>161</v>
@@ -3097,7 +3097,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>162</v>
@@ -3174,7 +3174,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>163</v>
@@ -3251,7 +3251,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>164</v>
@@ -3328,7 +3328,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>165</v>
@@ -3405,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>166</v>

--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9448AC73-E9B7-433B-89C0-EE588CE4C0F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE8AC8-DD24-4128-9D38-67917A5E4ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2457,8 +2457,8 @@
   <dimension ref="A1:Z248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2558,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>155</v>
@@ -2635,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>156</v>
@@ -2712,7 +2712,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>157</v>
@@ -2789,7 +2789,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>158</v>
@@ -2866,7 +2866,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>159</v>
@@ -2943,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>160</v>
@@ -3020,7 +3020,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>161</v>
@@ -3097,7 +3097,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>162</v>
@@ -3174,7 +3174,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>163</v>
@@ -3251,7 +3251,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>164</v>
@@ -3328,7 +3328,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>165</v>
@@ -3405,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>166</v>

--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE8AC8-DD24-4128-9D38-67917A5E4ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED196932-3D10-4B1D-9875-F55D8BAD898B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5436" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="405">
   <si>
     <t>Test Case</t>
   </si>
@@ -2457,8 +2457,8 @@
   <dimension ref="A1:Z248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2558,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>155</v>
@@ -2635,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>156</v>
@@ -2688,8 +2688,8 @@
       <c r="T3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="4">
-        <v>987654321</v>
+      <c r="U3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>26</v>
@@ -2712,7 +2712,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>157</v>
@@ -2789,7 +2789,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>158</v>
@@ -2866,7 +2866,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>159</v>
@@ -2943,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>160</v>
@@ -3020,7 +3020,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>161</v>
@@ -3097,7 +3097,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>162</v>
@@ -3174,7 +3174,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>163</v>
@@ -3251,7 +3251,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>164</v>
@@ -3328,7 +3328,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>165</v>
@@ -3405,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>166</v>
@@ -3482,7 +3482,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>167</v>
@@ -3559,7 +3559,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>168</v>
@@ -3636,7 +3636,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>169</v>
@@ -3713,7 +3713,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>170</v>
@@ -3790,7 +3790,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>171</v>
@@ -3867,7 +3867,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>172</v>
@@ -3944,7 +3944,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>173</v>
@@ -4021,7 +4021,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>174</v>
@@ -4098,7 +4098,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>175</v>
@@ -4175,7 +4175,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>176</v>
@@ -4252,7 +4252,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>177</v>
@@ -4329,7 +4329,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>178</v>
@@ -4406,7 +4406,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>179</v>
@@ -4483,7 +4483,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>180</v>
@@ -4560,7 +4560,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>181</v>
@@ -4637,7 +4637,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>182</v>
@@ -4714,7 +4714,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>183</v>
@@ -4791,7 +4791,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>184</v>
@@ -4868,7 +4868,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>185</v>
@@ -4945,7 +4945,7 @@
         <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>186</v>
@@ -5022,7 +5022,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>187</v>
@@ -5099,7 +5099,7 @@
         <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>188</v>
@@ -5176,7 +5176,7 @@
         <v>62</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>189</v>
@@ -5253,7 +5253,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>190</v>
@@ -5330,7 +5330,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>191</v>
@@ -5407,7 +5407,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>192</v>
@@ -5484,7 +5484,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>193</v>
@@ -5561,7 +5561,7 @@
         <v>67</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>194</v>
@@ -5638,7 +5638,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>195</v>
@@ -8872,7 +8872,7 @@
         <v>110</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>237</v>
@@ -8949,7 +8949,7 @@
         <v>111</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>238</v>
@@ -9026,7 +9026,7 @@
         <v>112</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>239</v>
@@ -9103,7 +9103,7 @@
         <v>113</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>240</v>
@@ -9180,7 +9180,7 @@
         <v>114</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>241</v>
@@ -9257,7 +9257,7 @@
         <v>115</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>242</v>
@@ -9334,7 +9334,7 @@
         <v>116</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>243</v>
@@ -9411,7 +9411,7 @@
         <v>117</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>244</v>
@@ -9488,7 +9488,7 @@
         <v>118</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>245</v>
@@ -9565,7 +9565,7 @@
         <v>119</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>246</v>
@@ -9642,7 +9642,7 @@
         <v>120</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>247</v>
@@ -9719,7 +9719,7 @@
         <v>121</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>248</v>
@@ -9796,7 +9796,7 @@
         <v>122</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>249</v>
@@ -9873,7 +9873,7 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>250</v>
@@ -9950,7 +9950,7 @@
         <v>124</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>251</v>
@@ -10027,7 +10027,7 @@
         <v>125</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>252</v>
@@ -10104,7 +10104,7 @@
         <v>126</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>253</v>
@@ -10181,7 +10181,7 @@
         <v>127</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>254</v>
@@ -10258,7 +10258,7 @@
         <v>128</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>255</v>
@@ -10335,7 +10335,7 @@
         <v>129</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>256</v>
@@ -10412,7 +10412,7 @@
         <v>130</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>257</v>
@@ -10489,7 +10489,7 @@
         <v>131</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>258</v>
@@ -10566,7 +10566,7 @@
         <v>132</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>259</v>
@@ -10643,7 +10643,7 @@
         <v>133</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>260</v>
@@ -10720,7 +10720,7 @@
         <v>134</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>261</v>
@@ -10797,7 +10797,7 @@
         <v>135</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>262</v>
@@ -10874,7 +10874,7 @@
         <v>136</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>263</v>
@@ -10951,7 +10951,7 @@
         <v>137</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>264</v>
@@ -11028,7 +11028,7 @@
         <v>138</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>265</v>
@@ -11105,7 +11105,7 @@
         <v>139</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>266</v>
@@ -11182,7 +11182,7 @@
         <v>140</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>267</v>
@@ -11259,7 +11259,7 @@
         <v>141</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>268</v>
@@ -11336,7 +11336,7 @@
         <v>142</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>269</v>
@@ -11413,7 +11413,7 @@
         <v>143</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>270</v>
@@ -11490,7 +11490,7 @@
         <v>144</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>271</v>
@@ -11567,7 +11567,7 @@
         <v>145</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>272</v>
@@ -11644,7 +11644,7 @@
         <v>146</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>273</v>
@@ -11721,7 +11721,7 @@
         <v>147</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>274</v>
@@ -11798,7 +11798,7 @@
         <v>148</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>275</v>
@@ -11875,7 +11875,7 @@
         <v>149</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>276</v>
@@ -11952,7 +11952,7 @@
         <v>150</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>277</v>
@@ -12029,7 +12029,7 @@
         <v>25</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>278</v>
@@ -12106,7 +12106,7 @@
         <v>29</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>279</v>
@@ -12183,7 +12183,7 @@
         <v>30</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>280</v>
@@ -12260,7 +12260,7 @@
         <v>31</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>281</v>
@@ -12337,7 +12337,7 @@
         <v>32</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>282</v>
@@ -12414,7 +12414,7 @@
         <v>33</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>283</v>
@@ -13261,7 +13261,7 @@
         <v>44</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>294</v>
@@ -13338,7 +13338,7 @@
         <v>45</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>295</v>
@@ -13415,7 +13415,7 @@
         <v>46</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>296</v>
@@ -13492,7 +13492,7 @@
         <v>47</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>297</v>
@@ -13569,7 +13569,7 @@
         <v>48</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>298</v>
@@ -13646,7 +13646,7 @@
         <v>49</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>299</v>
@@ -13723,7 +13723,7 @@
         <v>50</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>300</v>
@@ -13800,7 +13800,7 @@
         <v>51</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>301</v>
@@ -13877,7 +13877,7 @@
         <v>52</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>302</v>
@@ -13954,7 +13954,7 @@
         <v>53</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>303</v>
@@ -14031,7 +14031,7 @@
         <v>54</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>304</v>
@@ -14108,7 +14108,7 @@
         <v>55</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>305</v>
@@ -14185,7 +14185,7 @@
         <v>56</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>306</v>
@@ -14262,7 +14262,7 @@
         <v>57</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>307</v>
@@ -14339,7 +14339,7 @@
         <v>58</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>308</v>
@@ -14416,7 +14416,7 @@
         <v>59</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>309</v>
@@ -14493,7 +14493,7 @@
         <v>60</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>310</v>
@@ -14570,7 +14570,7 @@
         <v>61</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>311</v>
@@ -14647,7 +14647,7 @@
         <v>62</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>312</v>
@@ -14724,7 +14724,7 @@
         <v>63</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>313</v>
@@ -14801,7 +14801,7 @@
         <v>64</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>314</v>
@@ -14878,7 +14878,7 @@
         <v>65</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>315</v>
@@ -14955,7 +14955,7 @@
         <v>66</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>316</v>
@@ -15032,7 +15032,7 @@
         <v>67</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>317</v>
@@ -15109,7 +15109,7 @@
         <v>68</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>318</v>

--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED196932-3D10-4B1D-9875-F55D8BAD898B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE873A51-427C-4165-AE29-3EFFC6F5D50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2457,8 +2457,8 @@
   <dimension ref="A1:Z248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2558,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>155</v>
@@ -2635,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>156</v>
@@ -2712,7 +2712,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>157</v>
@@ -2789,7 +2789,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>158</v>
@@ -2866,7 +2866,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>159</v>
@@ -2943,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>160</v>
@@ -3020,7 +3020,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>161</v>
@@ -3097,7 +3097,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>162</v>
@@ -3174,7 +3174,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>163</v>
@@ -3251,7 +3251,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>164</v>
@@ -3328,7 +3328,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>165</v>
@@ -3405,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>166</v>
@@ -3482,7 +3482,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>167</v>
@@ -3559,7 +3559,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>168</v>
@@ -3636,7 +3636,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>169</v>
@@ -3713,7 +3713,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>170</v>
@@ -3790,7 +3790,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>171</v>
@@ -3867,7 +3867,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>172</v>
@@ -3944,7 +3944,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>173</v>
@@ -4021,7 +4021,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>174</v>
@@ -4098,7 +4098,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>175</v>
@@ -4175,7 +4175,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>176</v>
@@ -4252,7 +4252,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>177</v>
@@ -4329,7 +4329,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>178</v>
@@ -4406,7 +4406,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>179</v>
@@ -4483,7 +4483,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>180</v>
@@ -4560,7 +4560,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>181</v>
@@ -4637,7 +4637,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>182</v>
@@ -4714,7 +4714,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>183</v>
@@ -4791,7 +4791,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>184</v>
@@ -4868,7 +4868,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>185</v>
@@ -4945,7 +4945,7 @@
         <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>186</v>
@@ -5022,7 +5022,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>187</v>
@@ -5099,7 +5099,7 @@
         <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>188</v>
@@ -5176,7 +5176,7 @@
         <v>62</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>189</v>
@@ -5253,7 +5253,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>190</v>
@@ -5330,7 +5330,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>191</v>
@@ -5407,7 +5407,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>192</v>
@@ -5484,7 +5484,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>193</v>
@@ -5561,7 +5561,7 @@
         <v>67</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>194</v>
@@ -5638,7 +5638,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>195</v>
@@ -8872,7 +8872,7 @@
         <v>110</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>237</v>
@@ -8949,7 +8949,7 @@
         <v>111</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>238</v>
@@ -9026,7 +9026,7 @@
         <v>112</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>239</v>
@@ -9103,7 +9103,7 @@
         <v>113</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>240</v>
@@ -9180,7 +9180,7 @@
         <v>114</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>241</v>
@@ -9257,7 +9257,7 @@
         <v>115</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>242</v>
@@ -9334,7 +9334,7 @@
         <v>116</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>243</v>
@@ -12491,7 +12491,7 @@
         <v>34</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>284</v>
@@ -12568,7 +12568,7 @@
         <v>35</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>285</v>
@@ -12645,7 +12645,7 @@
         <v>36</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>286</v>
@@ -12722,7 +12722,7 @@
         <v>37</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>287</v>
@@ -12799,7 +12799,7 @@
         <v>38</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>288</v>
@@ -12876,7 +12876,7 @@
         <v>39</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>289</v>
@@ -12953,7 +12953,7 @@
         <v>40</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>290</v>
@@ -13030,7 +13030,7 @@
         <v>41</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>291</v>
@@ -13107,7 +13107,7 @@
         <v>42</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>292</v>
@@ -13184,7 +13184,7 @@
         <v>43</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>293</v>
@@ -18343,7 +18343,7 @@
         <v>110</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>360</v>
@@ -18420,7 +18420,7 @@
         <v>111</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>361</v>
@@ -18497,7 +18497,7 @@
         <v>112</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>362</v>
@@ -18574,7 +18574,7 @@
         <v>113</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>363</v>
@@ -18651,7 +18651,7 @@
         <v>114</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>364</v>
@@ -18728,7 +18728,7 @@
         <v>115</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>365</v>
@@ -18805,7 +18805,7 @@
         <v>116</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>366</v>
@@ -18882,7 +18882,7 @@
         <v>117</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>367</v>
@@ -18959,7 +18959,7 @@
         <v>118</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>368</v>
@@ -19036,7 +19036,7 @@
         <v>119</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>369</v>
@@ -19113,7 +19113,7 @@
         <v>120</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>370</v>
@@ -19190,7 +19190,7 @@
         <v>121</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>371</v>
@@ -19267,7 +19267,7 @@
         <v>122</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>372</v>
@@ -19344,7 +19344,7 @@
         <v>123</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>373</v>
@@ -19421,7 +19421,7 @@
         <v>124</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>374</v>
@@ -19498,7 +19498,7 @@
         <v>125</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>375</v>
@@ -19575,7 +19575,7 @@
         <v>126</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>376</v>
@@ -19652,7 +19652,7 @@
         <v>127</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>377</v>
@@ -19729,7 +19729,7 @@
         <v>128</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>378</v>
@@ -19806,7 +19806,7 @@
         <v>129</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>379</v>
@@ -19883,7 +19883,7 @@
         <v>130</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>380</v>
@@ -19960,7 +19960,7 @@
         <v>131</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>381</v>
@@ -20037,7 +20037,7 @@
         <v>132</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>382</v>
@@ -20114,7 +20114,7 @@
         <v>133</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>383</v>
@@ -20191,7 +20191,7 @@
         <v>134</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>384</v>
@@ -20268,7 +20268,7 @@
         <v>135</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>385</v>
@@ -20345,7 +20345,7 @@
         <v>136</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>386</v>
@@ -20422,7 +20422,7 @@
         <v>137</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>387</v>
@@ -20499,7 +20499,7 @@
         <v>138</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>388</v>
@@ -20576,7 +20576,7 @@
         <v>139</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>389</v>
@@ -20653,7 +20653,7 @@
         <v>140</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>390</v>
@@ -20730,7 +20730,7 @@
         <v>141</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>391</v>
@@ -20807,7 +20807,7 @@
         <v>142</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>392</v>
@@ -20884,7 +20884,7 @@
         <v>143</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>393</v>
@@ -20961,7 +20961,7 @@
         <v>144</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>394</v>
@@ -21038,7 +21038,7 @@
         <v>145</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>395</v>
@@ -21115,7 +21115,7 @@
         <v>146</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>396</v>
@@ -21192,7 +21192,7 @@
         <v>147</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>397</v>
@@ -21269,7 +21269,7 @@
         <v>148</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>398</v>
@@ -21346,7 +21346,7 @@
         <v>149</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>399</v>
@@ -21423,7 +21423,7 @@
         <v>150</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>400</v>

--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\IdeaProjects\Master\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE873A51-427C-4165-AE29-3EFFC6F5D50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838054D5-7216-4509-BF4A-27246967B933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2457,8 +2457,8 @@
   <dimension ref="A1:Z248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C90"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91:C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2558,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>155</v>
@@ -2635,7 +2635,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>156</v>
@@ -2712,7 +2712,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>157</v>
@@ -2789,7 +2789,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>158</v>
@@ -2866,7 +2866,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>159</v>
@@ -2943,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>160</v>
@@ -3020,7 +3020,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>161</v>
@@ -3097,7 +3097,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>162</v>
@@ -3174,7 +3174,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>163</v>
@@ -3251,7 +3251,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>164</v>
@@ -3328,7 +3328,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>165</v>
@@ -3405,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>166</v>
@@ -3482,7 +3482,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>167</v>
@@ -3559,7 +3559,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>168</v>
@@ -3636,7 +3636,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>169</v>
@@ -3713,7 +3713,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>170</v>
@@ -3790,7 +3790,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>171</v>
@@ -3867,7 +3867,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>172</v>
@@ -3944,7 +3944,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>173</v>
@@ -4021,7 +4021,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>174</v>
@@ -4098,7 +4098,7 @@
         <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>175</v>
@@ -4175,7 +4175,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>176</v>
@@ -4252,7 +4252,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>177</v>
@@ -4329,7 +4329,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>178</v>
@@ -4406,7 +4406,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>179</v>
@@ -4483,7 +4483,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>180</v>
@@ -4560,7 +4560,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>181</v>
@@ -4637,7 +4637,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>182</v>
@@ -4714,7 +4714,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>183</v>
@@ -4791,7 +4791,7 @@
         <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>184</v>
@@ -4868,7 +4868,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>185</v>
@@ -4945,7 +4945,7 @@
         <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>186</v>
@@ -5022,7 +5022,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>187</v>
@@ -5099,7 +5099,7 @@
         <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>188</v>
@@ -5176,7 +5176,7 @@
         <v>62</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>189</v>
@@ -5253,7 +5253,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>190</v>
@@ -5330,7 +5330,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>191</v>
@@ -5407,7 +5407,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>192</v>
@@ -5484,7 +5484,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>193</v>
@@ -5561,7 +5561,7 @@
         <v>67</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>194</v>
@@ -5638,7 +5638,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>195</v>
@@ -8872,7 +8872,7 @@
         <v>110</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>237</v>
@@ -8949,7 +8949,7 @@
         <v>111</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>238</v>
@@ -9026,7 +9026,7 @@
         <v>112</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>239</v>
@@ -9103,7 +9103,7 @@
         <v>113</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>240</v>
@@ -9180,7 +9180,7 @@
         <v>114</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>241</v>
@@ -9257,7 +9257,7 @@
         <v>115</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>242</v>
@@ -9334,7 +9334,7 @@
         <v>116</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>243</v>
@@ -9411,7 +9411,7 @@
         <v>117</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>244</v>
@@ -9488,7 +9488,7 @@
         <v>118</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>245</v>
@@ -9565,7 +9565,7 @@
         <v>119</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>246</v>
@@ -9642,7 +9642,7 @@
         <v>120</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>247</v>
@@ -9719,7 +9719,7 @@
         <v>121</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>248</v>
@@ -9796,7 +9796,7 @@
         <v>122</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>249</v>
@@ -9873,7 +9873,7 @@
         <v>123</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>250</v>
@@ -9950,7 +9950,7 @@
         <v>124</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>251</v>
@@ -10027,7 +10027,7 @@
         <v>125</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>252</v>
@@ -10104,7 +10104,7 @@
         <v>126</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>253</v>
@@ -10181,7 +10181,7 @@
         <v>127</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>254</v>
@@ -10258,7 +10258,7 @@
         <v>128</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>255</v>
@@ -10335,7 +10335,7 @@
         <v>129</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>256</v>
@@ -10412,7 +10412,7 @@
         <v>130</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>257</v>
@@ -10489,7 +10489,7 @@
         <v>131</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>258</v>
@@ -10566,7 +10566,7 @@
         <v>132</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>259</v>
@@ -10643,7 +10643,7 @@
         <v>133</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>260</v>
@@ -10720,7 +10720,7 @@
         <v>134</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>261</v>
@@ -10797,7 +10797,7 @@
         <v>135</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>262</v>
@@ -10874,7 +10874,7 @@
         <v>136</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>263</v>
@@ -10951,7 +10951,7 @@
         <v>137</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>264</v>
@@ -11028,7 +11028,7 @@
         <v>138</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>265</v>
@@ -11105,7 +11105,7 @@
         <v>139</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>266</v>
@@ -11182,7 +11182,7 @@
         <v>140</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>267</v>
@@ -11259,7 +11259,7 @@
         <v>141</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>268</v>
@@ -11336,7 +11336,7 @@
         <v>142</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>269</v>
@@ -11413,7 +11413,7 @@
         <v>143</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>270</v>
@@ -11490,7 +11490,7 @@
         <v>144</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>271</v>
@@ -11567,7 +11567,7 @@
         <v>145</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>272</v>
@@ -11644,7 +11644,7 @@
         <v>146</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>273</v>
@@ -11721,7 +11721,7 @@
         <v>147</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>274</v>
@@ -11798,7 +11798,7 @@
         <v>148</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>275</v>
@@ -11875,7 +11875,7 @@
         <v>149</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>276</v>
@@ -11952,7 +11952,7 @@
         <v>150</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>277</v>
@@ -12029,7 +12029,7 @@
         <v>25</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>278</v>

--- a/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4B1279-AEAE-417E-9197-FBDFA8E2A048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F68FD9-11CB-4263-A70C-BDA3ADC98201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28612,8 +28612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED2AC82-3AE9-451D-B35B-53395B71653E}">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
